--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GOOD show_locations_static" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>https://youtu.be/gZjQROMAh_s</t>
   </si>
   <si>
-    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.imdb.com%2Ftitle%2Ftt8579674%2F&amp;psig=AOvVaw0hSC-e-p8PM7IfUlm0avMY&amp;ust=1589633111729000&amp;source=images&amp;cd=vfe&amp;ved=0CAIQjRxqFwoTCNiWnvrytekCFQAAAAAdAAAAABAD</t>
-  </si>
-  <si>
     <t>Vue Alkmaar</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
   </si>
   <si>
     <t>www.vuecinemas.nl</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.vulture.com%2F2019%2F12%2Fmovie-review-sam-mendess-world-war-i-movie-1917.html&amp;psig=AOvVaw0hSC-e-p8PM7IfUlm0avMY&amp;ust=1589633111729000&amp;source=images&amp;cd=vfe&amp;ved=0CAIQjRxqFwoTCNiWnvrytekCFQAAAAAdAAAAABAI</t>
   </si>
   <si>
     <t>Filmhuis Alkmaar</t>
@@ -4446,6 +4440,12 @@
   <si>
     <t>www.filmtheaterfraterhuis.nl</t>
   </si>
+  <si>
+    <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcS9KHHcZ77V9cPmxm5b0yAjefFIqgQU4uB13lLIGXU8Jvbr8xIs</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/the-jh-movie-collection-official/images/7/7a/1917poster.jpg/revision/latest?cb=20200217221853</t>
+  </si>
 </sst>
 </file>
 
@@ -4458,7 +4458,7 @@
     <numFmt numFmtId="167" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4518,6 +4518,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4542,10 +4548,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4576,8 +4583,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4860,22 +4869,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4883,22 +4892,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4906,22 +4915,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4929,22 +4938,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4952,22 +4961,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4975,22 +4984,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4998,22 +5007,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5021,22 +5030,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5044,22 +5053,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5067,22 +5076,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -5090,22 +5099,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5113,22 +5122,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="G14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -5136,22 +5145,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="G15" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5159,22 +5168,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5182,22 +5191,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="G17" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5205,22 +5214,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="F18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5228,22 +5237,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5251,22 +5260,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5274,22 +5283,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -5297,22 +5306,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="G22" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -5320,19 +5329,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5340,22 +5349,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="G24" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -5363,22 +5372,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="G25" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5386,22 +5395,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="G26" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5409,22 +5418,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="G27" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5432,22 +5441,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="G28" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5455,22 +5464,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="G29" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5478,22 +5487,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="E30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="G30" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -5501,22 +5510,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="G31" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -5524,22 +5533,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="E32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="G32" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5547,22 +5556,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="E33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="G33" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -5570,22 +5579,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="G34" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -5593,22 +5602,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="E35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="G35" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5616,22 +5625,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="G36" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -5639,22 +5648,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="G37" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5662,22 +5671,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="G38" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -5685,22 +5694,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="G39" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -5708,22 +5717,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="F40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -5731,22 +5740,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="G41" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -5754,22 +5763,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="G42" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -5777,22 +5786,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="G43" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5800,22 +5809,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="G44" s="13" t="s">
         <v>285</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -5823,22 +5832,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="G45" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -5846,22 +5855,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="G46" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -5869,22 +5878,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="D47" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -5892,22 +5901,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="G48" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -5915,22 +5924,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E49" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="G49" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -5938,22 +5947,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="E50" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="G50" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -5961,22 +5970,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="G51" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -5984,22 +5993,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="G52" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -6007,22 +6016,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="G53" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -6030,22 +6039,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -6053,22 +6062,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="E55" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="G55" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -6076,22 +6085,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -6099,22 +6108,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="G57" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -6122,22 +6131,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="G58" s="13" t="s">
         <v>376</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -6145,22 +6154,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="G59" s="13" t="s">
         <v>382</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -6168,22 +6177,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="G60" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -6191,22 +6200,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="F61" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -6214,22 +6223,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="G62" s="13" t="s">
         <v>397</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -6237,22 +6246,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="G63" s="13" t="s">
         <v>403</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -6260,22 +6269,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="G64" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -6283,22 +6292,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="G65" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -6306,22 +6315,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="E66" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="G66" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -6329,22 +6338,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="G67" s="13" t="s">
         <v>423</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -6352,22 +6361,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="F68" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -6375,22 +6384,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="E69" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -6398,22 +6407,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="E70" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="G70" s="13" t="s">
         <v>435</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -6421,22 +6430,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="E71" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="G71" s="13" t="s">
         <v>440</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -6444,22 +6453,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="G72" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -6467,22 +6476,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="E73" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="G73" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -6490,22 +6499,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>457</v>
-      </c>
       <c r="G74" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -6513,22 +6522,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="E75" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="G75" s="13" t="s">
         <v>460</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -6536,19 +6545,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="G76" s="13" t="s">
         <v>465</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -6556,22 +6565,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="G77" s="13" t="s">
         <v>471</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -6579,19 +6588,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="G78" s="13" t="s">
         <v>476</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -6599,22 +6608,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="G79" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -6622,22 +6631,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="G80" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -6645,22 +6654,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="E81" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="G81" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -6668,22 +6677,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>499</v>
-      </c>
       <c r="G82" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -6691,22 +6700,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="E83" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="G83" s="13" t="s">
         <v>502</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -6714,22 +6723,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="G84" s="13" t="s">
         <v>508</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -6737,22 +6746,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>509</v>
-      </c>
       <c r="G85" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -6760,22 +6769,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="E86" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="G86" s="13" t="s">
         <v>515</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -6783,22 +6792,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="G87" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -6806,19 +6815,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="G88" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -6826,22 +6835,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="G89" s="13" t="s">
         <v>532</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -6849,22 +6858,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>538</v>
-      </c>
       <c r="F90" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -6872,22 +6881,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="E91" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="G91" s="13" t="s">
         <v>541</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -6895,22 +6904,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>547</v>
-      </c>
       <c r="F92" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -6918,22 +6927,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="E93" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>551</v>
-      </c>
       <c r="G93" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -6941,22 +6950,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="E94" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="G94" s="13" t="s">
         <v>554</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -6964,22 +6973,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="E95" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="G95" s="13" t="s">
         <v>559</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -6987,22 +6996,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="E96" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="G96" s="13" t="s">
         <v>563</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -7010,22 +7019,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="F97" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="G97" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -7033,22 +7042,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>576</v>
-      </c>
       <c r="G98" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -7056,19 +7065,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>575</v>
-      </c>
       <c r="G99" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -7076,22 +7085,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="G100" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -7099,22 +7108,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>589</v>
-      </c>
       <c r="G101" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -7122,22 +7131,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="E102" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>593</v>
-      </c>
       <c r="G102" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -7145,22 +7154,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="E103" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="G103" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -7168,22 +7177,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="F104" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>603</v>
-      </c>
       <c r="G104" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -7191,22 +7200,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>602</v>
-      </c>
       <c r="F105" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -7214,22 +7223,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="F106" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="G106" s="13" t="s">
         <v>608</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -7237,19 +7246,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="G107" s="13" t="s">
         <v>613</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -7257,22 +7266,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="G108" s="13" t="s">
         <v>619</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -7280,22 +7289,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="E109" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="G109" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -7303,22 +7312,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>631</v>
-      </c>
       <c r="G110" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -7326,22 +7335,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="E111" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="G111" s="13" t="s">
         <v>635</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -7349,22 +7358,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="E112" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="G112" s="13" t="s">
         <v>640</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -7372,22 +7381,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="F113" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>647</v>
-      </c>
       <c r="G113" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -7395,22 +7404,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>650</v>
-      </c>
       <c r="E114" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F114" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G114" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -7418,22 +7427,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="E115" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="G115" s="13" t="s">
         <v>653</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -7441,22 +7450,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="E116" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="G116" s="13" t="s">
         <v>658</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -7464,22 +7473,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="E117" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="G117" s="13" t="s">
         <v>663</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -7487,22 +7496,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>668</v>
-      </c>
       <c r="E118" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F118" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G118" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -7510,22 +7519,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="E119" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="G119" s="13" t="s">
         <v>671</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -7533,22 +7542,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="G120" s="13" t="s">
         <v>676</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -7556,22 +7565,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="F121" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="G121" s="13" t="s">
         <v>682</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -7579,22 +7588,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="E122" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="G122" s="13" t="s">
         <v>687</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -7602,19 +7611,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="G123" s="13" t="s">
         <v>692</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -7622,22 +7631,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="G124" s="13" t="s">
         <v>698</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -7645,22 +7654,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="F125" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="G125" s="13" t="s">
         <v>703</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -7668,22 +7677,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="E126" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="E126" s="4" t="s">
+      <c r="G126" s="13" t="s">
         <v>703</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -7691,22 +7700,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="E127" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="F127" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>714</v>
-      </c>
       <c r="G127" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -7714,22 +7723,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="F128" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="G128" s="13" t="s">
         <v>718</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -7737,22 +7746,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="E129" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="G129" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -7760,22 +7769,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="E130" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="F130" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="G130" s="13" t="s">
         <v>729</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -7783,22 +7792,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="E131" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="F131" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="G131" s="13" t="s">
         <v>735</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -7806,22 +7815,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="E132" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>741</v>
-      </c>
       <c r="F132" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G132" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -7829,22 +7838,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="E133" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="G133" s="13" t="s">
         <v>744</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -7852,22 +7861,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="E134" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>750</v>
-      </c>
       <c r="F134" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G134" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -7875,22 +7884,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="E135" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="G135" s="13" t="s">
         <v>753</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -7898,22 +7907,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="F136" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>760</v>
-      </c>
       <c r="G136" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -7921,22 +7930,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="E137" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="G137" s="13" t="s">
         <v>763</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -7944,22 +7953,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="E138" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="G138" s="13" t="s">
         <v>768</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -7967,22 +7976,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="E139" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="F139" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="G139" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -7990,22 +7999,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="E140" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="G140" s="13" t="s">
         <v>778</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -8013,22 +8022,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="E141" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="F141" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>785</v>
-      </c>
       <c r="G141" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -8036,22 +8045,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="E142" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="F142" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>790</v>
-      </c>
       <c r="G142" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -8059,22 +8068,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="E143" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="F143" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>795</v>
-      </c>
       <c r="G143" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -8082,22 +8091,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="E144" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="G144" s="13" t="s">
         <v>797</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -8105,22 +8114,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="E145" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="F145" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="G145" s="13" t="s">
         <v>803</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -8128,22 +8137,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="E146" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="G146" s="13" t="s">
         <v>808</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -8151,22 +8160,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="E147" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="F147" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>815</v>
-      </c>
       <c r="G147" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -8174,19 +8183,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="E148" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="G148" s="13" t="s">
         <v>818</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -8194,22 +8203,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="F149" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="G149" s="13" t="s">
         <v>824</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -8217,22 +8226,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C150" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="E150" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="F150" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>830</v>
-      </c>
       <c r="G150" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -8240,22 +8249,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="E151" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="G151" s="13" t="s">
         <v>833</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -8263,22 +8272,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="E152" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="F152" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>840</v>
-      </c>
       <c r="G152" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -8286,22 +8295,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="E153" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="F153" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="G153" s="13" t="s">
         <v>844</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -8309,20 +8318,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E154" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>849</v>
       </c>
       <c r="F154" s="25">
         <f>5997953757</f>
         <v>5997953757</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -8330,22 +8339,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="E155" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="F155" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="G155" s="13" t="s">
         <v>854</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -8353,22 +8362,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="E156" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>860</v>
-      </c>
       <c r="F156" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G156" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -8376,22 +8385,22 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F157" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G157" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -8399,22 +8408,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="E158" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="G158" s="13" t="s">
         <v>865</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -8422,22 +8431,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="E159" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="F159" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="G159" s="13" t="s">
         <v>871</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -8445,22 +8454,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="E160" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="E160" s="4" t="s">
+      <c r="G160" s="13" t="s">
         <v>871</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="G160" s="13" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -8468,22 +8477,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="E161" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="E161" s="4" t="s">
+      <c r="G161" s="13" t="s">
         <v>871</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -8491,22 +8500,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="F162" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="G162" s="13" t="s">
         <v>885</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -8514,19 +8523,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="E163" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="G163" s="13" t="s">
         <v>890</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -8534,22 +8543,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="E164" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="F164" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="G164" s="13" t="s">
         <v>896</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="G164" s="13" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -8557,22 +8566,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="F165" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="G165" s="13" t="s">
         <v>900</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="G165" s="13" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -8580,22 +8589,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="E166" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>906</v>
-      </c>
       <c r="F166" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G166" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -8603,22 +8612,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="E167" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="G167" s="13" t="s">
         <v>909</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -8626,22 +8635,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="E168" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="G168" s="13" t="s">
         <v>914</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -8649,22 +8658,22 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="E169" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="F169" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="G169" s="13" t="s">
         <v>920</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -8672,22 +8681,22 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D170" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="E170" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="F170" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="G170" s="13" t="s">
         <v>926</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -8695,22 +8704,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="E171" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="F171" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="G171" s="13" t="s">
         <v>932</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="G171" s="13" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -8718,22 +8727,22 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="E172" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="F172" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="G172" s="13" t="s">
         <v>938</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -8741,22 +8750,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="E173" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="F173" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="G173" s="13" t="s">
         <v>944</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="G173" s="13" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -8764,22 +8773,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="E174" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>950</v>
-      </c>
       <c r="F174" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G174" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G174" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -8787,22 +8796,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="D175" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="E175" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>954</v>
-      </c>
       <c r="G175" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -8810,22 +8819,22 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D176" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="E176" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="G176" s="13" t="s">
         <v>957</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="G176" s="13" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -8833,22 +8842,22 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D177" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="E177" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="G177" s="13" t="s">
         <v>962</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -8856,22 +8865,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="E178" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="G178" s="13" t="s">
         <v>967</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="G178" s="13" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -8879,22 +8888,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="E179" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="F179" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="G179" s="13" t="s">
         <v>973</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -8902,22 +8911,22 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="E180" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="F180" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="G180" s="13" t="s">
         <v>979</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="G180" s="13" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -8925,22 +8934,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="E181" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="F181" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="G181" s="13" t="s">
         <v>985</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="G181" s="13" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -8948,22 +8957,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="F182" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="G182" s="13" t="s">
         <v>991</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="G182" s="13" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -8971,22 +8980,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="E183" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="F183" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="E183" s="4" t="s">
+      <c r="G183" s="13" t="s">
         <v>997</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="G183" s="13" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -8994,22 +9003,22 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="E184" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="F184" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="G184" s="13" t="s">
         <v>1003</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G184" s="13" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -9017,22 +9026,22 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="E185" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="F185" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>1010</v>
-      </c>
       <c r="G185" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -9040,22 +9049,22 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="E186" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="G186" s="13" t="s">
         <v>1013</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G186" s="13" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -9063,22 +9072,22 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="E187" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F187" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="G187" s="13" t="s">
         <v>1018</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G187" s="13" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -9086,22 +9095,22 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="E188" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="F188" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="E188" s="4" t="s">
+      <c r="G188" s="13" t="s">
         <v>1024</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G188" s="13" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -9109,22 +9118,22 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="E189" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F189" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="G189" s="13" t="s">
         <v>1029</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G189" s="13" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -9132,22 +9141,22 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="E190" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="F190" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="E190" s="4" t="s">
+      <c r="G190" s="4" t="s">
         <v>1035</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -9155,22 +9164,22 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="E191" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="D191" s="4" t="s">
+      <c r="F191" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="E191" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>1042</v>
-      </c>
       <c r="G191" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -9178,22 +9187,22 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="E192" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F192" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="G192" s="13" t="s">
         <v>1045</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G192" s="13" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -9201,22 +9210,22 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="E193" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="F193" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="E193" s="4" t="s">
+      <c r="G193" s="13" t="s">
         <v>1051</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G193" s="13" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -9224,22 +9233,22 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="E194" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="F194" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="G194" s="13" t="s">
         <v>1057</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -9247,22 +9256,22 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="E195" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="F195" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="G195" s="13" t="s">
         <v>1063</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G195" s="13" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -9270,22 +9279,22 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="E196" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="G196" s="13" t="s">
         <v>1068</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G196" s="13" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -9293,22 +9302,22 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C197" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E197" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="F197" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="E197" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>1074</v>
-      </c>
       <c r="G197" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -9316,22 +9325,22 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C198" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E198" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>1073</v>
-      </c>
       <c r="F198" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -9339,22 +9348,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="E199" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F199" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>1079</v>
-      </c>
       <c r="G199" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -9362,22 +9371,22 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>1082</v>
-      </c>
       <c r="E200" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F200" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G200" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G200" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -9385,22 +9394,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>1085</v>
-      </c>
       <c r="E201" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F201" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G201" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G201" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -9408,22 +9417,22 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="E202" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="G202" s="13" t="s">
         <v>1088</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G202" s="13" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -9431,22 +9440,22 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="E203" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F203" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="G203" s="13" t="s">
         <v>1093</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G203" s="13" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -9454,22 +9463,22 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="E204" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F204" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="G204" s="13" t="s">
         <v>1098</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G204" s="13" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -9477,22 +9486,22 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="E205" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="D205" s="4" t="s">
+      <c r="F205" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="E205" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>1105</v>
-      </c>
       <c r="G205" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -9500,22 +9509,22 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="E206" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D206" s="4" t="s">
+      <c r="G206" s="13" t="s">
         <v>1108</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G206" s="13" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -9523,22 +9532,22 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="E207" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>1114</v>
-      </c>
       <c r="F207" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G207" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G207" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -9546,22 +9555,22 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="E208" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="F208" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>1119</v>
-      </c>
       <c r="G208" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -9569,22 +9578,22 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="E209" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="G209" s="13" t="s">
         <v>1122</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G209" s="13" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -9592,22 +9601,22 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D210" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="E210" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="F210" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="E210" s="4" t="s">
+      <c r="G210" s="13" t="s">
         <v>1128</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G210" s="13" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -9615,22 +9624,22 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D211" s="4" t="s">
+      <c r="G211" s="13" t="s">
         <v>1132</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G211" s="13" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -9638,22 +9647,22 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="E212" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>1138</v>
-      </c>
       <c r="F212" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -9661,22 +9670,22 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="E213" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G213" s="13" t="s">
         <v>1140</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G213" s="13" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -9684,22 +9693,22 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="E214" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F214" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="G214" s="13" t="s">
         <v>1145</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G214" s="13" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -9707,22 +9716,22 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="E215" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="D215" s="4" t="s">
+      <c r="F215" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="E215" s="4" t="s">
+      <c r="G215" s="13" t="s">
         <v>1151</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G215" s="13" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -9730,22 +9739,22 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G216" s="13" t="s">
         <v>1154</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G216" s="13" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -9753,22 +9762,22 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D217" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="E217" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="F217" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="E217" s="4" t="s">
+      <c r="G217" s="13" t="s">
         <v>1160</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G217" s="13" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -9776,22 +9785,22 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="E218" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="D218" s="4" t="s">
+      <c r="F218" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="E218" s="4" t="s">
+      <c r="G218" s="13" t="s">
         <v>1166</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G218" s="13" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -9799,22 +9808,22 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D219" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="E219" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="F219" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="E219" s="4" t="s">
+      <c r="G219" s="13" t="s">
         <v>1172</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G219" s="13" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -9822,22 +9831,22 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="E220" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="D220" s="4" t="s">
+      <c r="F220" s="4" t="s">
         <v>1177</v>
       </c>
-      <c r="E220" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>1179</v>
-      </c>
       <c r="G220" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -9845,22 +9854,22 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D221" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="E221" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="F221" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="E221" s="4" t="s">
+      <c r="G221" s="13" t="s">
         <v>1183</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G221" s="13" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -9868,22 +9877,22 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="E222" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="F222" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="G222" s="13" t="s">
         <v>1189</v>
-      </c>
-      <c r="F222" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G222" s="13" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -9891,22 +9900,22 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D223" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="E223" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="G223" s="13" t="s">
         <v>1194</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G223" s="13" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -9914,22 +9923,22 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D224" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="E224" s="4" t="s">
         <v>1198</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>1200</v>
-      </c>
       <c r="F224" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G224" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G224" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -9937,22 +9946,22 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D225" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="E225" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="D225" s="4" t="s">
+      <c r="G225" s="13" t="s">
         <v>1203</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G225" s="13" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -9960,22 +9969,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D226" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="E226" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F226" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>1209</v>
-      </c>
       <c r="G226" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -9983,22 +9992,22 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D227" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="E227" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="D227" s="4" t="s">
+      <c r="F227" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="E227" s="4" t="s">
+      <c r="G227" s="13" t="s">
         <v>1213</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G227" s="13" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -10006,22 +10015,22 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D228" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="E228" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F228" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="D228" s="4" t="s">
+      <c r="G228" s="13" t="s">
         <v>1218</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G228" s="13" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -10029,22 +10038,22 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="E229" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="D229" s="4" t="s">
+      <c r="F229" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="E229" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>1225</v>
-      </c>
       <c r="G229" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -10052,22 +10061,22 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D230" s="4" t="s">
         <v>1226</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="E230" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F230" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>1229</v>
-      </c>
       <c r="G230" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -10075,22 +10084,22 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D231" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>1232</v>
-      </c>
       <c r="E231" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F231" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G231" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G231" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -10098,22 +10107,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D232" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>1235</v>
-      </c>
       <c r="E232" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F232" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G232" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G232" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -10121,22 +10130,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D233" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="E233" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F233" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="D233" s="4" t="s">
+      <c r="G233" s="13" t="s">
         <v>1238</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G233" s="13" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -10144,22 +10153,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D234" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="E234" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F234" s="4" t="s">
         <v>1242</v>
       </c>
-      <c r="D234" s="4" t="s">
+      <c r="G234" s="13" t="s">
         <v>1243</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G234" s="13" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -10167,22 +10176,22 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D235" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="E235" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F235" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="D235" s="4" t="s">
+      <c r="G235" s="13" t="s">
         <v>1248</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G235" s="13" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -10190,22 +10199,22 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D236" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="E236" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="D236" s="4" t="s">
+      <c r="F236" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="E236" s="4" t="s">
+      <c r="G236" s="13" t="s">
         <v>1254</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G236" s="13" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -10213,22 +10222,22 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="E237" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="D237" s="4" t="s">
+      <c r="F237" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="E237" s="4" t="s">
+      <c r="G237" s="13" t="s">
         <v>1260</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G237" s="13" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -10236,22 +10245,22 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D238" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="E238" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="D238" s="4" t="s">
+      <c r="F238" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="G238" s="13" t="s">
         <v>1266</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G238" s="13" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -10259,22 +10268,22 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D239" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="E239" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F239" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="D239" s="4" t="s">
+      <c r="G239" s="13" t="s">
         <v>1271</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G239" s="13" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -10282,22 +10291,22 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D240" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="E240" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="D240" s="4" t="s">
+      <c r="F240" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="E240" s="4" t="s">
+      <c r="G240" s="13" t="s">
         <v>1277</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G240" s="13" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -10305,22 +10314,22 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D241" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="E241" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F241" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="D241" s="4" t="s">
+      <c r="G241" s="13" t="s">
         <v>1282</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G241" s="13" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -10328,22 +10337,22 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D242" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="E242" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="F242" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G242" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G242" s="13" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -10351,22 +10360,22 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D243" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="E243" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F243" s="4" t="s">
         <v>1291</v>
       </c>
-      <c r="D243" s="4" t="s">
+      <c r="G243" s="13" t="s">
         <v>1292</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G243" s="13" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -10374,22 +10383,22 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D244" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="E244" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="D244" s="4" t="s">
+      <c r="F244" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="E244" s="4" t="s">
+      <c r="G244" s="13" t="s">
         <v>1298</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G244" s="13" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -10397,22 +10406,22 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D245" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="E245" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="D245" s="4" t="s">
+      <c r="F245" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="E245" s="4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>1305</v>
-      </c>
       <c r="G245" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -10420,22 +10429,22 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G246" s="13" t="s">
         <v>1306</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G246" s="13" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -10443,22 +10452,22 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D247" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="E247" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>1312</v>
-      </c>
       <c r="F247" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -10466,22 +10475,22 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D248" s="4" t="s">
         <v>1313</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>1315</v>
-      </c>
       <c r="E248" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -10489,22 +10498,22 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D249" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="E249" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="D249" s="4" t="s">
+      <c r="F249" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="E249" s="4" t="s">
+      <c r="G249" s="13" t="s">
         <v>1319</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G249" s="13" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -10512,22 +10521,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D250" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="E250" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="D250" s="4" t="s">
+      <c r="F250" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="E250" s="4" t="s">
+      <c r="G250" s="13" t="s">
         <v>1325</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G250" s="13" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -10535,22 +10544,22 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="E251" s="4" t="s">
         <v>1329</v>
       </c>
-      <c r="D251" s="4" t="s">
+      <c r="F251" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="E251" s="4" t="s">
+      <c r="G251" s="13" t="s">
         <v>1331</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G251" s="13" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -10558,22 +10567,22 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D252" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="E252" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F252" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="D252" s="4" t="s">
+      <c r="G252" s="13" t="s">
         <v>1336</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G252" s="13" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -10581,22 +10590,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D253" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="E253" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="D253" s="4" t="s">
+      <c r="F253" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="E253" s="4" t="s">
+      <c r="G253" s="13" t="s">
         <v>1342</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G253" s="13" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -10604,22 +10613,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D254" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="E254" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="D254" s="4" t="s">
+      <c r="F254" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="G254" s="13" t="s">
         <v>1348</v>
-      </c>
-      <c r="F254" s="4" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G254" s="13" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -10627,22 +10636,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D255" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="E255" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="D255" s="4" t="s">
+      <c r="F255" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="E255" s="4" t="s">
+      <c r="G255" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G255" s="13" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -10650,22 +10659,22 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D256" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="E256" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="D256" s="4" t="s">
+      <c r="F256" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="E256" s="4" t="s">
+      <c r="G256" s="13" t="s">
         <v>1360</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G256" s="13" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -10673,22 +10682,22 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D257" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="E257" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="D257" s="4" t="s">
+      <c r="F257" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="E257" s="4" t="s">
+      <c r="G257" s="13" t="s">
         <v>1366</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G257" s="13" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -10696,22 +10705,22 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D258" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="E258" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="D258" s="4" t="s">
+      <c r="F258" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="E258" s="4" t="s">
+      <c r="G258" s="13" t="s">
         <v>1372</v>
-      </c>
-      <c r="F258" s="4" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G258" s="13" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -10719,22 +10728,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D259" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="E259" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="D259" s="4" t="s">
+      <c r="F259" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="E259" s="4" t="s">
+      <c r="G259" s="13" t="s">
         <v>1378</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G259" s="13" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -10742,22 +10751,22 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G260" s="13" t="s">
         <v>1381</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G260" s="13" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -10765,22 +10774,22 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D261" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="E261" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="D261" s="4" t="s">
+      <c r="F261" s="4" t="s">
         <v>1386</v>
       </c>
-      <c r="E261" s="4" t="s">
+      <c r="G261" s="13" t="s">
         <v>1387</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G261" s="13" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -10788,22 +10797,22 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D262" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="E262" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="D262" s="4" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>1393</v>
-      </c>
       <c r="F262" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G262" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G262" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -10811,22 +10820,22 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D263" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="E263" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F263" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="D263" s="4" t="s">
+      <c r="G263" s="13" t="s">
         <v>1396</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G263" s="13" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -10834,22 +10843,22 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D264" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="E264" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="D264" s="4" t="s">
+      <c r="F264" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="E264" s="4" t="s">
+      <c r="G264" s="13" t="s">
         <v>1402</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G264" s="13" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -10857,22 +10866,22 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="E265" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="D265" s="4" t="s">
+      <c r="F265" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="E265" s="4" t="s">
+      <c r="G265" s="13" t="s">
         <v>1408</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G265" s="13" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -10880,22 +10889,22 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D266" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="E266" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="D266" s="4" t="s">
+      <c r="F266" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="G266" s="13" t="s">
         <v>1414</v>
-      </c>
-      <c r="F266" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G266" s="13" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -10903,22 +10912,22 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C267" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E267" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="D267" s="4" t="s">
+      <c r="F267" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="E267" s="4" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>1420</v>
-      </c>
       <c r="G267" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -10926,22 +10935,22 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D268" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="E268" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F268" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="D268" s="4" t="s">
+      <c r="G268" s="13" t="s">
         <v>1423</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G268" s="13" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -10949,22 +10958,22 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="E269" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="D269" s="4" t="s">
+      <c r="F269" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="E269" s="4" t="s">
+      <c r="G269" s="13" t="s">
         <v>1429</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G269" s="13" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -10972,22 +10981,22 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D270" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="E270" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="D270" s="4" t="s">
+      <c r="F270" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="E270" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>1436</v>
-      </c>
       <c r="G270" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -10995,22 +11004,22 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D271" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="E271" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G271" s="13" t="s">
         <v>1438</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G271" s="13" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -11018,22 +11027,22 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G272" s="13" t="s">
         <v>1441</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G272" s="13" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -11041,22 +11050,22 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D273" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="E273" s="4" t="s">
         <v>1445</v>
       </c>
-      <c r="D273" s="4" t="s">
+      <c r="F273" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="E273" s="4" t="s">
+      <c r="G273" s="13" t="s">
         <v>1447</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G273" s="13" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -11064,22 +11073,22 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="E274" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F274" s="4" t="s">
         <v>1451</v>
       </c>
-      <c r="D274" s="4" t="s">
+      <c r="G274" s="13" t="s">
         <v>1452</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G274" s="13" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -11087,22 +11096,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D275" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="E275" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>1458</v>
-      </c>
       <c r="F275" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G275" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="G275" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -11110,22 +11119,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D276" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="E276" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F276" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="D276" s="4" t="s">
+      <c r="G276" s="13" t="s">
         <v>1461</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G276" s="13" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -11133,22 +11142,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D277" s="4" t="s">
         <v>1464</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="E277" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G277" s="13" t="s">
         <v>1465</v>
-      </c>
-      <c r="D277" s="4" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F277" s="4" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G277" s="13" t="s">
-        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -11440,8 +11449,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17994,6 +18003,9 @@
       <c r="D1000" s="16"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation operator="notBetween" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18005,7 +18017,9 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18102,11 +18116,11 @@
       <c r="H2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>43</v>
+      <c r="I2" s="26" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>1467</v>
       </c>
       <c r="L2" s="18">
         <v>8.1250000000000003E-2</v>
@@ -18162,25 +18176,25 @@
         <v>5</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="F1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -18188,26 +18202,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -18215,19 +18229,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="7">
         <v>1819123456</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -18235,16 +18249,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -18252,13 +18266,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -18290,16 +18304,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>195</v>
-      </c>
       <c r="D1" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -18382,7 +18396,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O2" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -18393,49 +18407,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -18443,37 +18457,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="Q4" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>259</v>
-      </c>
       <c r="R4" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -18481,37 +18495,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5" s="7">
         <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="Q5" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -18519,31 +18533,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E6" s="24">
         <v>996</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="Q6" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -18551,13 +18565,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -18566,16 +18580,16 @@
         <v>1200</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -18583,13 +18597,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -18598,19 +18612,19 @@
         <v>1100</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="R8" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GOOD show_locations_static" sheetId="1" r:id="rId1"/>
@@ -4805,8 +4805,8 @@
   </sheetPr>
   <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11449,8 +11449,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18003,7 +18003,7 @@
       <c r="D1000" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation operator="notBetween" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18017,8 +18017,8 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18113,7 +18113,7 @@
       <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="26" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="26" t="s">
@@ -18140,9 +18140,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GOOD show_locations_static" sheetId="1" r:id="rId1"/>
@@ -4805,8 +4805,8 @@
   </sheetPr>
   <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D262" sqref="D262"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11449,8 +11449,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18003,7 +18003,7 @@
       <c r="D1000" s="16"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation operator="notBetween" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18017,8 +18017,8 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18113,7 +18113,7 @@
       <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="26" t="s">
@@ -18140,9 +18140,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1467">
   <si>
     <t>ID</t>
   </si>
@@ -4442,9 +4442,6 @@
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcS9KHHcZ77V9cPmxm5b0yAjefFIqgQU4uB13lLIGXU8Jvbr8xIs</t>
-  </si>
-  <si>
-    <t>https://vignette.wikia.nocookie.net/the-jh-movie-collection-official/images/7/7a/1917poster.jpg/revision/latest?cb=20200217221853</t>
   </si>
 </sst>
 </file>
@@ -11449,7 +11446,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -18018,7 +18015,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18119,9 +18116,7 @@
       <c r="I2" s="26" t="s">
         <v>1466</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>1467</v>
-      </c>
+      <c r="J2" s="26"/>
       <c r="L2" s="18">
         <v>8.1250000000000003E-2</v>
       </c>
@@ -18142,7 +18137,6 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GOOD show_locations_static" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1471">
   <si>
     <t>ID</t>
   </si>
@@ -4442,6 +4442,18 @@
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcS9KHHcZ77V9cPmxm5b0yAjefFIqgQU4uB13lLIGXU8Jvbr8xIs</t>
+  </si>
+  <si>
+    <t>base_url</t>
+  </si>
+  <si>
+    <t>https://movie.planetnine.com/</t>
+  </si>
+  <si>
+    <t>ticket_url</t>
+  </si>
+  <si>
+    <t>https://buy-ticket.com</t>
   </si>
 </sst>
 </file>
@@ -11446,8 +11458,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11481,7 +11493,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="9">
-        <v>43983</v>
+        <v>43970</v>
       </c>
       <c r="D2" s="5">
         <v>0.63194444444444442</v>
@@ -11600,7 +11612,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="9">
-        <v>43989</v>
+        <v>43970</v>
       </c>
       <c r="D9" s="5">
         <v>0.61805555555555558</v>
@@ -11872,7 +11884,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="9">
-        <v>43990</v>
+        <v>43970</v>
       </c>
       <c r="D25" s="5">
         <v>0.60416666666666663</v>
@@ -11974,7 +11986,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="9">
-        <v>43985</v>
+        <v>43970</v>
       </c>
       <c r="D31" s="5">
         <v>0.76388888888888884</v>
@@ -12195,7 +12207,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="9">
-        <v>43987</v>
+        <v>43970</v>
       </c>
       <c r="D44" s="5">
         <v>0.47569444444444442</v>
@@ -12262,8 +12274,8 @@
       <c r="B48" s="2">
         <v>200</v>
       </c>
-      <c r="C48" s="11">
-        <v>43990</v>
+      <c r="C48" s="9">
+        <v>43970</v>
       </c>
       <c r="D48" s="5">
         <v>0.47916666666666669</v>
@@ -18014,8 +18026,8 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18074,8 +18086,12 @@
       <c r="M1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>1469</v>
+      </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
@@ -18123,6 +18139,12 @@
       <c r="M2" s="7">
         <v>8.1999999999999993</v>
       </c>
+      <c r="N2" s="26" t="s">
+        <v>1468</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
@@ -18137,6 +18159,8 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="N2" r:id="rId3"/>
+    <hyperlink ref="O2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -11458,7 +11458,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GOOD show_locations_static" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1475">
   <si>
     <t>ID</t>
   </si>
@@ -4455,6 +4455,38 @@
   <si>
     <t>https://buy-ticket.com</t>
   </si>
+  <si>
+    <t>producer</t>
+  </si>
+  <si>
+    <t>writer</t>
+  </si>
+  <si>
+    <r>
+      <t>Sam Mendes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF70579D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Krysty Wilson-Cairns</t>
+    </r>
+  </si>
+  <si>
+    <t>Sam Mendes, Brian Oliver, Julie Pastor</t>
+  </si>
 </sst>
 </file>
 
@@ -4467,7 +4499,7 @@
     <numFmt numFmtId="167" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4533,6 +4565,24 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF70579D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4561,7 +4611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4593,6 +4643,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11458,7 +11510,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -18024,10 +18076,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18037,16 +18089,16 @@
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -18066,34 +18118,38 @@
         <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>1467</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>1469</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -18103,8 +18159,10 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -18123,46 +18181,53 @@
       <c r="F2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="28" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>1466</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="L2" s="18">
+      <c r="L2" s="26"/>
+      <c r="N2" s="18">
         <v>8.1250000000000003E-2</v>
       </c>
-      <c r="M2" s="7">
+      <c r="O2" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>1468</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="N2" r:id="rId3"/>
-    <hyperlink ref="O2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GOOD show_locations_static" sheetId="1" r:id="rId1"/>
@@ -11510,7 +11510,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -11545,7 +11545,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="9">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D2" s="5">
         <v>0.63194444444444442</v>
@@ -11664,7 +11664,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="9">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D9" s="5">
         <v>0.61805555555555558</v>
@@ -11936,7 +11936,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="9">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D25" s="5">
         <v>0.60416666666666663</v>
@@ -12038,7 +12038,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="9">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D31" s="5">
         <v>0.76388888888888884</v>
@@ -12259,7 +12259,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="9">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D44" s="5">
         <v>0.47569444444444442</v>
@@ -12327,7 +12327,7 @@
         <v>200</v>
       </c>
       <c r="C48" s="9">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D48" s="5">
         <v>0.47916666666666669</v>
@@ -18078,7 +18078,7 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -11510,7 +11510,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -11545,7 +11545,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="9">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D2" s="5">
         <v>0.63194444444444442</v>
@@ -11664,7 +11664,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="9">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D9" s="5">
         <v>0.61805555555555558</v>
@@ -11936,7 +11936,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="9">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D25" s="5">
         <v>0.60416666666666663</v>
@@ -12038,7 +12038,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="9">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D31" s="5">
         <v>0.76388888888888884</v>
@@ -12259,7 +12259,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="9">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D44" s="5">
         <v>0.47569444444444442</v>
@@ -12327,7 +12327,7 @@
         <v>200</v>
       </c>
       <c r="C48" s="9">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D48" s="5">
         <v>0.47916666666666669</v>
@@ -18078,7 +18078,7 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GOOD show_locations_static" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1477">
   <si>
     <t>ID</t>
   </si>
@@ -113,25 +113,10 @@
     <t>Alblasserdam</t>
   </si>
   <si>
-    <t>A HEROIC TALE</t>
-  </si>
-  <si>
-    <t>During World War I, two British soldiers -- Lance Cpl. Schofield and Lance Cpl. Blake -- receive seemingly impossible orders. In a race against time, they must cross over into enemy territory to deliver a message that could potentially save 1,600 of their fellow comrades -- including Blake's own brother.</t>
-  </si>
-  <si>
     <t>078-6912923</t>
   </si>
   <si>
     <t>www.landvast.nl</t>
-  </si>
-  <si>
-    <t>Sam Mendes</t>
-  </si>
-  <si>
-    <t>Dean-Charles Chapman, George Mackay</t>
-  </si>
-  <si>
-    <t>https://youtu.be/gZjQROMAh_s</t>
   </si>
   <si>
     <t>Vue Alkmaar</t>
@@ -4441,9 +4426,6 @@
     <t>www.filmtheaterfraterhuis.nl</t>
   </si>
   <si>
-    <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcS9KHHcZ77V9cPmxm5b0yAjefFIqgQU4uB13lLIGXU8Jvbr8xIs</t>
-  </si>
-  <si>
     <t>base_url</t>
   </si>
   <si>
@@ -4462,30 +4444,35 @@
     <t>writer</t>
   </si>
   <si>
-    <r>
-      <t>Sam Mendes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF70579D"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Krysty Wilson-Cairns</t>
-    </r>
-  </si>
-  <si>
-    <t>Sam Mendes, Brian Oliver, Julie Pastor</t>
+    <t>https://m.media-amazon.com/images/M/MV5BMjkxOTc2M2ItODI4ZC00ZDVmLTg1ZGMtMDczNTYyNzg4Nzk3XkEyXkFqcGdeQXVyMTMxODk2OTU@._V1_SY1000_CR0,0,736,1000_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/eVVHmw3uH2Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sober Frenchwoman Sarah raises her young daughter Stella on her own. Sarah is also a brilliant and driven astronaut, selected for an ambitious - male-dominated - space mission, together with the chauvinist American Mike and the peace-loving Russian Anton. She prepares herself and Stella for her prolonged absence and physically in top condition she starts the tough training in Russia. It is the beginning of an emotional rollercoaster, in which she has to navigate between her personal dreams and needs and those of her child. As she leaves the earth, Sarah realizes that she feels more connected to it than ever.
+</t>
+  </si>
+  <si>
+    <t>A MOTHER DAUGHTER RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>Proxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alice Winocour </t>
+  </si>
+  <si>
+    <t>Nina Frese, Serge Hayat, Isabelle Madelaine, Emilie Tisné</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eva Green, Zélie Boulant, Matt Dillon</t>
+  </si>
+  <si>
+    <t>Alice Winocour (screenplay), Jean-Stéphane Bron (collaboration)</t>
+  </si>
+  <si>
+    <t>1 Hour 47 Min</t>
   </si>
 </sst>
 </file>
@@ -4499,7 +4486,7 @@
     <numFmt numFmtId="167" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4577,12 +4564,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4611,7 +4592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4645,6 +4626,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4919,10 +4908,10 @@
         <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4930,22 +4919,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4953,22 +4942,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4976,22 +4965,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4999,22 +4988,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5022,22 +5011,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5045,22 +5034,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5068,22 +5057,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5091,22 +5080,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5114,22 +5103,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="G11" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5137,22 +5126,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -5160,22 +5149,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="G13" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5183,22 +5172,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -5206,22 +5195,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5229,22 +5218,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5252,22 +5241,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5275,22 +5264,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5298,22 +5287,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5321,22 +5310,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5344,22 +5333,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -5367,22 +5356,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -5390,19 +5379,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5410,22 +5399,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -5433,22 +5422,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5456,22 +5445,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5479,22 +5468,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5502,22 +5491,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5525,22 +5514,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5548,22 +5537,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -5571,22 +5560,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -5594,22 +5583,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5617,22 +5606,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -5640,22 +5629,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -5663,22 +5652,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5686,22 +5675,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -5709,22 +5698,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5732,22 +5721,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -5755,22 +5744,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -5778,22 +5767,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -5801,22 +5790,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -5824,22 +5813,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -5847,22 +5836,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5870,22 +5859,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="G44" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -5893,22 +5882,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="G45" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -5916,22 +5905,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -5939,22 +5928,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="F47" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -5962,22 +5951,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>309</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -5985,22 +5974,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -6008,22 +5997,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="G50" s="13" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -6031,22 +6020,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>334</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -6054,22 +6043,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -6077,22 +6066,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -6100,22 +6089,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -6123,22 +6112,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -6146,22 +6135,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>359</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -6169,22 +6158,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -6192,22 +6181,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -6215,22 +6204,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -6238,22 +6227,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>383</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -6261,22 +6250,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -6284,22 +6273,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>392</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -6307,22 +6296,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>398</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -6330,22 +6319,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -6353,22 +6342,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="G65" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -6376,22 +6365,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -6399,22 +6388,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>418</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -6422,22 +6411,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -6445,22 +6434,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -6468,22 +6457,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -6491,22 +6480,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -6514,22 +6503,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -6537,22 +6526,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="G73" s="13" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -6560,22 +6549,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -6583,22 +6572,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>459</v>
-      </c>
       <c r="G75" s="13" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -6606,19 +6595,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -6626,22 +6615,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G77" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -6649,19 +6638,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -6669,22 +6658,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G79" s="13" t="s">
         <v>477</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -6692,22 +6681,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -6715,22 +6704,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E81" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>491</v>
-      </c>
       <c r="G81" s="13" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -6738,22 +6727,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -6761,22 +6750,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="G83" s="13" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -6784,22 +6773,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G84" s="13" t="s">
         <v>503</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -6807,22 +6796,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G85" s="13" t="s">
         <v>505</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -6830,22 +6819,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -6853,22 +6842,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G87" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -6876,19 +6865,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -6896,22 +6885,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G89" s="13" t="s">
         <v>527</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -6919,22 +6908,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -6942,22 +6931,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>536</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -6965,22 +6954,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -6988,22 +6977,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -7011,22 +7000,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -7034,22 +7023,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -7057,22 +7046,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F96" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="G96" s="13" t="s">
         <v>558</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -7080,22 +7069,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G97" s="13" t="s">
         <v>564</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -7103,22 +7092,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -7126,19 +7115,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="G99" s="13" t="s">
         <v>571</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -7146,22 +7135,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G100" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -7169,22 +7158,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -7192,22 +7181,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E102" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>591</v>
-      </c>
       <c r="G102" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -7215,22 +7204,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -7238,22 +7227,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -7261,22 +7250,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -7284,22 +7273,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G106" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -7307,19 +7296,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -7327,22 +7316,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="G108" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -7350,22 +7339,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -7373,22 +7362,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -7396,22 +7385,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G111" s="13" t="s">
         <v>630</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -7419,22 +7408,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -7442,22 +7431,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -7465,22 +7454,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -7488,22 +7477,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -7511,22 +7500,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -7534,22 +7523,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -7557,22 +7546,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -7580,22 +7569,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -7603,22 +7592,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -7626,22 +7615,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="G121" s="13" t="s">
         <v>677</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -7649,22 +7638,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -7672,19 +7661,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -7692,22 +7681,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G124" s="13" t="s">
         <v>693</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -7715,22 +7704,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -7738,22 +7727,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -7761,22 +7750,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -7784,22 +7773,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G128" s="13" t="s">
         <v>713</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -7807,22 +7796,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -7830,22 +7819,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G130" s="13" t="s">
         <v>724</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -7853,22 +7842,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="G131" s="13" t="s">
         <v>730</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -7876,22 +7865,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -7899,22 +7888,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E133" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G133" s="13" t="s">
         <v>739</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -7922,22 +7911,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -7945,22 +7934,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E135" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="G135" s="13" t="s">
         <v>748</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -7968,22 +7957,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -7991,22 +7980,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E137" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>762</v>
-      </c>
       <c r="G137" s="13" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -8014,22 +8003,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -8037,22 +8026,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -8060,22 +8049,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E140" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="F140" s="4" t="s">
-        <v>777</v>
-      </c>
       <c r="G140" s="13" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -8083,22 +8072,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -8106,22 +8095,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -8129,22 +8118,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -8152,22 +8141,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E144" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G144" s="13" t="s">
         <v>792</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -8175,22 +8164,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="G145" s="13" t="s">
         <v>798</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -8198,22 +8187,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -8221,22 +8210,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -8244,19 +8233,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -8264,22 +8253,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G149" s="13" t="s">
         <v>819</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -8287,22 +8276,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G150" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -8310,22 +8299,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E151" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>832</v>
-      </c>
       <c r="G151" s="13" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -8333,22 +8322,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -8356,22 +8345,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="G153" s="13" t="s">
         <v>839</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -8379,20 +8368,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F154" s="25">
         <f>5997953757</f>
         <v>5997953757</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -8400,22 +8389,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="G155" s="13" t="s">
         <v>849</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -8423,22 +8412,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -8446,22 +8435,22 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -8469,22 +8458,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -8492,22 +8481,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="G159" s="13" t="s">
         <v>866</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -8515,22 +8504,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -8538,22 +8527,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -8561,22 +8550,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="G162" s="13" t="s">
         <v>880</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -8584,19 +8573,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -8604,22 +8593,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="G164" s="13" t="s">
         <v>891</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="G164" s="13" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -8627,22 +8616,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="E165" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="F165" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="F165" s="4" t="s">
-        <v>899</v>
-      </c>
       <c r="G165" s="13" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -8650,22 +8639,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -8673,22 +8662,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E167" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="G167" s="13" t="s">
         <v>904</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -8696,22 +8685,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -8719,22 +8708,22 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="G169" s="13" t="s">
         <v>915</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -8742,22 +8731,22 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="G170" s="13" t="s">
         <v>921</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -8765,22 +8754,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="G171" s="13" t="s">
         <v>927</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="G171" s="13" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -8788,22 +8777,22 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="G172" s="13" t="s">
         <v>933</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -8811,22 +8800,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="G173" s="13" t="s">
         <v>939</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="G173" s="13" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -8834,22 +8823,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -8857,22 +8846,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -8880,22 +8869,22 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -8903,22 +8892,22 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -8926,22 +8915,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -8949,22 +8938,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="G179" s="13" t="s">
         <v>968</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -8972,22 +8961,22 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="G180" s="13" t="s">
         <v>974</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="G180" s="13" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -8995,22 +8984,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="G181" s="13" t="s">
         <v>980</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="G181" s="13" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -9018,22 +9007,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="G182" s="13" t="s">
         <v>986</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="G182" s="13" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -9041,22 +9030,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="G183" s="13" t="s">
         <v>992</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="G183" s="13" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -9064,22 +9053,22 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="G184" s="13" t="s">
         <v>998</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G184" s="13" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -9087,22 +9076,22 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -9110,22 +9099,22 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E186" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="F186" s="4" t="s">
-        <v>1012</v>
-      </c>
       <c r="G186" s="13" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -9133,22 +9122,22 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -9156,22 +9145,22 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G188" s="13" t="s">
         <v>1019</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G188" s="13" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -9179,22 +9168,22 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -9202,22 +9191,22 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G190" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -9225,22 +9214,22 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -9248,22 +9237,22 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="E192" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F192" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>1044</v>
-      </c>
       <c r="G192" s="13" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -9271,22 +9260,22 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G193" s="13" t="s">
         <v>1046</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G193" s="13" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -9294,22 +9283,22 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G194" s="13" t="s">
         <v>1052</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -9317,22 +9306,22 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G195" s="13" t="s">
         <v>1058</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G195" s="13" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -9340,22 +9329,22 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -9363,22 +9352,22 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -9386,22 +9375,22 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -9409,22 +9398,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -9432,22 +9421,22 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -9455,22 +9444,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -9478,22 +9467,22 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -9501,22 +9490,22 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -9524,22 +9513,22 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -9547,22 +9536,22 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -9570,22 +9559,22 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="E206" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="F206" s="4" t="s">
-        <v>1107</v>
-      </c>
       <c r="G206" s="13" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -9593,22 +9582,22 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -9616,22 +9605,22 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -9639,22 +9628,22 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E209" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="F209" s="4" t="s">
-        <v>1121</v>
-      </c>
       <c r="G209" s="13" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -9662,22 +9651,22 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G210" s="13" t="s">
         <v>1123</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G210" s="13" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -9685,22 +9674,22 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="E211" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="F211" s="4" t="s">
-        <v>1131</v>
-      </c>
       <c r="G211" s="13" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -9708,22 +9697,22 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -9731,22 +9720,22 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -9754,22 +9743,22 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -9777,22 +9766,22 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G215" s="13" t="s">
         <v>1146</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G215" s="13" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -9800,22 +9789,22 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="E216" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G216" s="13" t="s">
         <v>1149</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G216" s="13" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -9823,22 +9812,22 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G217" s="13" t="s">
         <v>1155</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G217" s="13" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -9846,22 +9835,22 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G218" s="13" t="s">
         <v>1161</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G218" s="13" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -9869,22 +9858,22 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G219" s="13" t="s">
         <v>1167</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G219" s="13" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -9892,22 +9881,22 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -9915,22 +9904,22 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G221" s="13" t="s">
         <v>1178</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G221" s="13" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -9938,22 +9927,22 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G222" s="13" t="s">
         <v>1184</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F222" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G222" s="13" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -9961,22 +9950,22 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -9984,22 +9973,22 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -10007,22 +9996,22 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E225" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G225" s="13" t="s">
         <v>1198</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G225" s="13" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -10030,22 +10019,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -10053,22 +10042,22 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G227" s="13" t="s">
         <v>1208</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G227" s="13" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -10076,22 +10065,22 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -10099,22 +10088,22 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -10122,22 +10111,22 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="E230" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F230" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="F230" s="4" t="s">
-        <v>1227</v>
-      </c>
       <c r="G230" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -10145,22 +10134,22 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -10168,22 +10157,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -10191,22 +10180,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -10214,22 +10203,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -10237,22 +10226,22 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -10260,22 +10249,22 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G236" s="13" t="s">
         <v>1249</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G236" s="13" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -10283,22 +10272,22 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G237" s="13" t="s">
         <v>1255</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G237" s="13" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -10306,22 +10295,22 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G238" s="13" t="s">
         <v>1261</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G238" s="13" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -10329,22 +10318,22 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -10352,22 +10341,22 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G240" s="13" t="s">
         <v>1272</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G240" s="13" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -10375,22 +10364,22 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -10398,22 +10387,22 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -10421,22 +10410,22 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="E243" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F243" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="F243" s="4" t="s">
-        <v>1291</v>
-      </c>
       <c r="G243" s="13" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -10444,22 +10433,22 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G244" s="13" t="s">
         <v>1293</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G244" s="13" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -10467,22 +10456,22 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="G245" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -10490,22 +10479,22 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C246" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F246" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="D246" s="4" t="s">
+      <c r="G246" s="13" t="s">
         <v>1301</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G246" s="13" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -10513,22 +10502,22 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -10536,22 +10525,22 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -10559,22 +10548,22 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G249" s="13" t="s">
         <v>1314</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G249" s="13" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -10582,22 +10571,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G250" s="13" t="s">
         <v>1320</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G250" s="13" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -10605,22 +10594,22 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G251" s="13" t="s">
         <v>1326</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G251" s="13" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -10628,22 +10617,22 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="G252" s="13" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -10651,22 +10640,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G253" s="13" t="s">
         <v>1337</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G253" s="13" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -10674,22 +10663,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G254" s="13" t="s">
         <v>1343</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F254" s="4" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G254" s="13" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -10697,22 +10686,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G255" s="13" t="s">
         <v>1349</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G255" s="13" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -10720,22 +10709,22 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G256" s="13" t="s">
         <v>1355</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G256" s="13" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -10743,22 +10732,22 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G257" s="13" t="s">
         <v>1361</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G257" s="13" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -10766,22 +10755,22 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G258" s="13" t="s">
         <v>1367</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F258" s="4" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G258" s="13" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -10789,22 +10778,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G259" s="13" t="s">
         <v>1373</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G259" s="13" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -10812,22 +10801,22 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="D260" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F260" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="E260" s="4" t="s">
+      <c r="G260" s="13" t="s">
         <v>1376</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G260" s="13" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -10835,22 +10824,22 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G261" s="13" t="s">
         <v>1382</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>1386</v>
-      </c>
-      <c r="G261" s="13" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -10858,22 +10847,22 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -10881,22 +10870,22 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="E263" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G263" s="13" t="s">
         <v>1391</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G263" s="13" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -10904,22 +10893,22 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G264" s="13" t="s">
         <v>1397</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G264" s="13" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -10927,22 +10916,22 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G265" s="13" t="s">
         <v>1403</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G265" s="13" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -10950,22 +10939,22 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G266" s="13" t="s">
         <v>1409</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F266" s="4" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G266" s="13" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -10973,22 +10962,22 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G267" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G267" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -10996,22 +10985,22 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="E268" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F268" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="F268" s="4" t="s">
-        <v>1422</v>
-      </c>
       <c r="G268" s="13" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -11019,22 +11008,22 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G269" s="13" t="s">
         <v>1424</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G269" s="13" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -11042,22 +11031,22 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="G270" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -11065,22 +11054,22 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="E271" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G271" s="13" t="s">
         <v>1433</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G271" s="13" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -11088,22 +11077,22 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="C272" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G272" s="13" t="s">
         <v>1436</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G272" s="13" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -11111,22 +11100,22 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G273" s="13" t="s">
         <v>1442</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G273" s="13" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -11134,22 +11123,22 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -11157,22 +11146,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -11180,22 +11169,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="E276" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G276" s="13" t="s">
         <v>1456</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G276" s="13" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -11203,22 +11192,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="G277" s="13" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
     </row>
   </sheetData>
@@ -11510,8 +11499,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11545,7 +11534,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="9">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D2" s="5">
         <v>0.63194444444444442</v>
@@ -11664,7 +11653,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="9">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D9" s="5">
         <v>0.61805555555555558</v>
@@ -11936,7 +11925,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="9">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D25" s="5">
         <v>0.60416666666666663</v>
@@ -12038,7 +12027,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="9">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D31" s="5">
         <v>0.76388888888888884</v>
@@ -12157,7 +12146,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="9">
-        <v>43992</v>
+        <v>43973</v>
       </c>
       <c r="D38" s="5">
         <v>0.64583333333333337</v>
@@ -12259,7 +12248,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="9">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D44" s="5">
         <v>0.47569444444444442</v>
@@ -12327,7 +12316,7 @@
         <v>200</v>
       </c>
       <c r="C48" s="9">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D48" s="5">
         <v>0.47916666666666669</v>
@@ -12378,7 +12367,7 @@
         <v>200</v>
       </c>
       <c r="C51" s="9">
-        <v>43992</v>
+        <v>43973</v>
       </c>
       <c r="D51" s="5">
         <v>0.70833333333333337</v>
@@ -18078,8 +18067,8 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18094,7 +18083,7 @@
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="31" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18118,10 +18107,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>13</v>
@@ -18138,17 +18127,17 @@
       <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="30" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
@@ -18162,52 +18151,52 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="255" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>1917</v>
+      <c r="B2" s="7" t="s">
+        <v>1471</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
+        <v>1470</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>1469</v>
       </c>
       <c r="E2" s="10">
         <v>43983</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>1472</v>
       </c>
       <c r="G2" s="28" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>1474</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>1473</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>35</v>
+      <c r="J2" s="26" t="s">
+        <v>1468</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="L2" s="26"/>
-      <c r="N2" s="18">
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="O2" s="7">
-        <v>8.1999999999999993</v>
+      <c r="N2" s="32" t="s">
+        <v>1476</v>
+      </c>
+      <c r="O2" s="28">
+        <v>6.3</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -18221,13 +18210,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2"/>
-    <hyperlink ref="P2" r:id="rId3"/>
-    <hyperlink ref="Q2" r:id="rId4"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -18259,25 +18247,25 @@
         <v>5</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -18285,26 +18273,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -18312,19 +18300,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D3" s="7">
         <v>1819123456</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -18332,16 +18320,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -18349,13 +18337,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -18387,16 +18375,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -18479,7 +18467,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O2" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -18490,49 +18478,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="R3" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -18540,37 +18528,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="R4" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -18578,37 +18566,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E5" s="7">
         <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q5" s="12" t="s">
+      <c r="R5" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -18616,31 +18604,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>305</v>
       </c>
       <c r="E6" s="24">
         <v>996</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -18648,13 +18636,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -18663,16 +18651,16 @@
         <v>1200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -18680,13 +18668,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -18695,19 +18683,19 @@
         <v>1100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GOOD show_locations_static" sheetId="1" r:id="rId1"/>
@@ -11499,7 +11499,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -11534,7 +11534,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="9">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="D2" s="5">
         <v>0.63194444444444442</v>
@@ -11653,7 +11653,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="9">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="D9" s="5">
         <v>0.61805555555555558</v>
@@ -11925,7 +11925,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="9">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="D25" s="5">
         <v>0.60416666666666663</v>
@@ -12027,7 +12027,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="9">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="D31" s="5">
         <v>0.76388888888888884</v>
@@ -12146,7 +12146,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="9">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="D38" s="5">
         <v>0.64583333333333337</v>
@@ -12248,7 +12248,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="9">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="D44" s="5">
         <v>0.47569444444444442</v>
@@ -12316,7 +12316,7 @@
         <v>200</v>
       </c>
       <c r="C48" s="9">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="D48" s="5">
         <v>0.47916666666666669</v>
@@ -12367,7 +12367,7 @@
         <v>200</v>
       </c>
       <c r="C51" s="9">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="D51" s="5">
         <v>0.70833333333333337</v>
@@ -18067,7 +18067,7 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -18087,7 +18087,7 @@
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -18199,13 +18199,13 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
     </row>
   </sheetData>

--- a/public/movies.xlsx
+++ b/public/movies.xlsx
@@ -11534,7 +11534,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="9">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="D2" s="5">
         <v>0.63194444444444442</v>
@@ -11653,7 +11653,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="9">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="D9" s="5">
         <v>0.61805555555555558</v>
@@ -11925,7 +11925,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="9">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="D25" s="5">
         <v>0.60416666666666663</v>
@@ -12027,7 +12027,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="9">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="D31" s="5">
         <v>0.76388888888888884</v>
@@ -12146,7 +12146,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="9">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="D38" s="5">
         <v>0.64583333333333337</v>
@@ -12248,7 +12248,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="9">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="D44" s="5">
         <v>0.47569444444444442</v>
@@ -12316,7 +12316,7 @@
         <v>200</v>
       </c>
       <c r="C48" s="9">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="D48" s="5">
         <v>0.47916666666666669</v>
@@ -12367,7 +12367,7 @@
         <v>200</v>
       </c>
       <c r="C51" s="9">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="D51" s="5">
         <v>0.70833333333333337</v>
@@ -18068,7 +18068,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
